--- a/EmailBlast/Excel/Tycadome/Continent/Australia/Australia.xlsx
+++ b/EmailBlast/Excel/Tycadome/Continent/Australia/Australia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Continent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Continent\Australia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029BE907-2DAC-4930-AAF4-C2302A399A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE46438-5CA7-4573-933F-EC25892979FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="15" windowWidth="5745" windowHeight="5445" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,13 @@
     <sheet name="Everything" sheetId="7" r:id="rId7"/>
     <sheet name="SubmitHub" sheetId="8" r:id="rId8"/>
     <sheet name="Website" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1452,33 +1451,6 @@
   </si>
   <si>
     <t>Triple J</t>
-  </si>
-  <si>
-    <t>XXL Hip Hop Board</t>
-  </si>
-  <si>
-    <t>JustBlaze</t>
-  </si>
-  <si>
-    <t>Trica sandlers</t>
-  </si>
-  <si>
-    <t>Amina</t>
-  </si>
-  <si>
-    <t>Dj Clue</t>
-  </si>
-  <si>
-    <t>Dj Self</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Roberta</t>
   </si>
   <si>
     <t>2bbbmail@gmail.com</t>
@@ -1862,9 +1834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1920,70 +1892,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:H2" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1994,9 +1902,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2060,7 +1968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2086,7 +1994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2112,7 +2020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2141,7 +2049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2186,9 +2094,9 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2234,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2277,7 +2185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2340,9 +2248,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -2394,7 +2302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2420,7 +2328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2443,7 +2351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -2483,9 +2391,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2543,7 +2451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2566,7 +2474,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2589,7 +2497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2609,7 +2517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2638,7 +2546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2664,7 +2572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2704,9 +2612,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -2749,7 +2657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2769,7 +2677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -2789,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2806,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -2826,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2843,7 +2751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -2863,7 +2771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -2883,7 +2791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -2910,15 +2818,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2973,7 +2881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3002,7 +2910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3022,7 +2930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3045,7 +2953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -3068,7 +2976,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -3097,7 +3005,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -3117,7 +3025,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -3143,7 +3051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -3163,7 +3071,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -3189,7 +3097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -3215,7 +3123,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -3235,12 +3143,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
         <v>213</v>
@@ -3261,7 +3169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -3284,7 +3192,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -3310,7 +3218,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -3336,7 +3244,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -3359,7 +3267,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -3385,7 +3293,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -3414,7 +3322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -3443,7 +3351,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -3472,7 +3380,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>264</v>
       </c>
@@ -3495,7 +3403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -3524,7 +3432,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -3550,7 +3458,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>278</v>
       </c>
@@ -3579,7 +3487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -3608,7 +3516,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>292</v>
       </c>
@@ -3637,7 +3545,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>299</v>
       </c>
@@ -3666,7 +3574,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -3689,7 +3597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -3715,7 +3623,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>317</v>
       </c>
@@ -3738,7 +3646,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -3764,7 +3672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -3790,7 +3698,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -3819,7 +3727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>338</v>
       </c>
@@ -3845,7 +3753,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>344</v>
       </c>
@@ -3871,7 +3779,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>348</v>
       </c>
@@ -3897,7 +3805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -3920,7 +3828,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -3946,7 +3854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>361</v>
       </c>
@@ -3972,7 +3880,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>367</v>
       </c>
@@ -3998,7 +3906,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>373</v>
       </c>
@@ -4024,7 +3932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -4053,7 +3961,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>386</v>
       </c>
@@ -4079,7 +3987,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>392</v>
       </c>
@@ -4105,7 +4013,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>398</v>
       </c>
@@ -4134,7 +4042,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>405</v>
       </c>
@@ -4163,7 +4071,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>412</v>
       </c>
@@ -4186,7 +4094,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>417</v>
       </c>
@@ -4209,7 +4117,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>422</v>
       </c>
@@ -4235,7 +4143,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>428</v>
       </c>
@@ -4261,7 +4169,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>429</v>
       </c>
@@ -4287,7 +4195,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>432</v>
       </c>
@@ -4316,7 +4224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>435</v>
       </c>
@@ -4342,7 +4250,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>441</v>
       </c>
@@ -4371,7 +4279,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>443</v>
       </c>
@@ -4400,7 +4308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>445</v>
       </c>
@@ -4429,7 +4337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>447</v>
       </c>
@@ -4458,7 +4366,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>451</v>
       </c>
@@ -4487,7 +4395,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>454</v>
       </c>
@@ -4516,7 +4424,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>457</v>
       </c>
@@ -4545,7 +4453,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>460</v>
       </c>
@@ -4574,7 +4482,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>462</v>
       </c>
@@ -4600,7 +4508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>463</v>
       </c>
@@ -4629,8 +4537,6 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4645,9 +4551,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4585,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4705,11 +4611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +4632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>471</v>
       </c>
@@ -4740,7 +4646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>473</v>
       </c>
@@ -4757,7 +4663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
